--- a/trunk/social-analytics/social-analytics-collector/doc/data_layout.xlsx
+++ b/trunk/social-analytics/social-analytics-collector/doc/data_layout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="lucene_index" sheetId="1" r:id="rId1"/>
@@ -378,9 +378,6 @@
     <t>주제어-서술어 Frequency</t>
   </si>
   <si>
-    <t>detail_docs</t>
-  </si>
-  <si>
     <t>Feature/Subject/Attribute별 주간 집계</t>
   </si>
   <si>
@@ -457,6 +454,9 @@
   </si>
   <si>
     <t>me2DAY 수집 원본 데이터</t>
+  </si>
+  <si>
+    <t>docs</t>
   </si>
 </sst>
 </file>
@@ -1178,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1191,7 +1191,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -1392,7 +1392,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1564,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B65"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1577,16 +1577,16 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1623,18 +1623,18 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1663,16 +1663,16 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1709,10 +1709,10 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1763,10 +1763,10 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1803,10 +1803,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1835,10 +1835,10 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1849,10 +1849,10 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1889,10 +1889,10 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1937,24 +1937,24 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B53" s="10"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1991,10 +1991,10 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2018,31 +2018,31 @@
         <v>10</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +2074,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>94</v>
@@ -2307,7 +2307,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>94</v>
@@ -2564,7 +2564,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>94</v>
@@ -2789,7 +2789,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>94</v>

--- a/trunk/social-analytics/social-analytics-collector/doc/data_layout.xlsx
+++ b/trunk/social-analytics/social-analytics-collector/doc/data_layout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="lucene_index" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="146">
   <si>
     <t>site</t>
   </si>
@@ -324,9 +324,6 @@
     <t>생성주기</t>
   </si>
   <si>
-    <t>데이터 수집과 동시에 생성</t>
-  </si>
-  <si>
     <t>생성시점</t>
   </si>
   <si>
@@ -457,6 +454,15 @@
   </si>
   <si>
     <t>docs</t>
+  </si>
+  <si>
+    <t>doc_polarity</t>
+  </si>
+  <si>
+    <t>doc_polarity_strength</t>
+  </si>
+  <si>
+    <t>데이터 수집과 동시에 생성(옵션, 필요시 인덱스 사용)</t>
   </si>
 </sst>
 </file>
@@ -584,7 +590,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="123">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -708,8 +714,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -723,8 +733,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="123">
+  <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -786,6 +797,8 @@
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -847,6 +860,8 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1176,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B24"/>
+  <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1191,7 +1206,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -1200,7 +1215,7 @@
         <v>98</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1324,42 +1339,50 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>26</v>
+      <c r="A20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1377,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B22"/>
+  <dimension ref="A2:B24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1392,24 +1415,24 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1461,90 +1484,106 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1564,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
@@ -1577,16 +1616,16 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1623,34 +1662,34 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1658,21 +1697,21 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1709,10 +1748,10 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1725,26 +1764,26 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1752,21 +1791,21 @@
         <v>13</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1803,10 +1842,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1827,32 +1866,32 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="10"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1889,10 +1928,10 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1921,40 +1960,40 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B53" s="10"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1991,10 +2030,10 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2018,31 +2057,31 @@
         <v>10</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2061,7 +2100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A6" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2074,7 +2113,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -2088,7 +2127,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>94</v>
@@ -2294,7 +2333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2307,7 +2346,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -2321,7 +2360,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>94</v>
@@ -2564,7 +2603,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -2578,7 +2617,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>94</v>
@@ -2789,7 +2828,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -2803,7 +2842,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>94</v>

--- a/trunk/social-analytics/social-analytics-collector/doc/data_layout.xlsx
+++ b/trunk/social-analytics/social-analytics-collector/doc/data_layout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="lucene_index" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="145">
   <si>
     <t>site</t>
   </si>
@@ -153,9 +153,6 @@
     <t>평점</t>
   </si>
   <si>
-    <t>is_spam_text</t>
-  </si>
-  <si>
     <t>스팸 여부</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>원본문서텍스트(이모티콘 태그로 변환안함.)</t>
   </si>
   <si>
-    <t>원본문서텍스트(이모티콘 태그로 변환)</t>
-  </si>
-  <si>
     <t>메인 피쳐분류: 피쳐분류중에 가장 매칭건수가 많은 피쳐분류명</t>
   </si>
   <si>
@@ -463,6 +457,9 @@
   </si>
   <si>
     <t>데이터 수집과 동시에 생성(옵션, 필요시 인덱스 사용)</t>
+  </si>
+  <si>
+    <t>is_spam</t>
   </si>
 </sst>
 </file>
@@ -590,8 +587,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -735,7 +734,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -799,6 +798,7 @@
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -862,6 +862,7 @@
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1193,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1206,16 +1207,16 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1223,7 +1224,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1263,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1279,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1303,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1335,15 +1336,15 @@
         <v>10</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1356,7 +1357,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>27</v>
@@ -1364,7 +1365,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>28</v>
@@ -1415,24 +1416,24 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1472,7 +1473,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1488,7 +1489,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1512,7 +1513,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1544,20 +1545,20 @@
         <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>27</v>
@@ -1565,7 +1566,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>28</v>
@@ -1604,7 +1605,7 @@
   <dimension ref="A2:B65"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1616,16 +1617,16 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1662,34 +1663,34 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1697,21 +1698,21 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1748,10 +1749,10 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1764,26 +1765,26 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1791,21 +1792,21 @@
         <v>13</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1842,10 +1843,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1866,32 +1867,32 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B39" s="10"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1928,10 +1929,10 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1960,40 +1961,40 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B53" s="10"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2030,10 +2031,10 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2057,31 +2058,31 @@
         <v>10</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2100,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2113,24 +2114,24 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2170,7 +2171,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2186,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2215,10 +2216,10 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2226,23 +2227,23 @@
         <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2250,7 +2251,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2258,15 +2259,15 @@
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2290,15 +2291,15 @@
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2334,7 +2335,7 @@
   <dimension ref="A2:B31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2346,24 +2347,24 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2392,7 +2393,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -2403,15 +2404,15 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2419,7 +2420,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2440,10 +2441,10 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2456,26 +2457,26 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2483,23 +2484,23 @@
         <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2507,7 +2508,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2515,15 +2516,15 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2547,15 +2548,15 @@
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2603,24 +2604,24 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2660,15 +2661,15 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2676,31 +2677,31 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2708,23 +2709,23 @@
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2732,7 +2733,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2740,15 +2741,15 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2772,15 +2773,15 @@
         <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2828,24 +2829,24 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2885,15 +2886,15 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2901,7 +2902,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2922,34 +2923,34 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2957,31 +2958,31 @@
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2989,7 +2990,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2997,15 +2998,15 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3029,15 +3030,15 @@
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2">
